--- a/BabbleAcoustic/Acoustic_characteristics_dataset_age_language.xlsx
+++ b/BabbleAcoustic/Acoustic_characteristics_dataset_age_language.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CurrentStudies\BabblepaperOCS\results\ResultsTTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CurrentStudies\BabblepaperOCS\results\ResultsTTL\age-language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EF5CB6-044A-4241-B770-9C69AC674DF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0F7D34-51CC-44BE-A61A-4C2DD014A018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="12">
   <si>
     <t>babble</t>
   </si>
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -382,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -506,6 +512,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -551,10 +568,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,12 +932,12 @@
   <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
@@ -966,16 +985,16 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>205.182214250371</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>203</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>711.29512379129096</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>4952.8217759480503</v>
       </c>
       <c r="I2" s="2">
@@ -995,16 +1014,16 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>209.66751918011201</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>213</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>719.64261350134404</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>4439.6100066264898</v>
       </c>
       <c r="I3" s="2">
@@ -1024,16 +1043,16 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>235.28016474760699</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>232</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>1335.91411864815</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>3286.40470048623</v>
       </c>
       <c r="I4" s="2">
@@ -1053,16 +1072,16 @@
       <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>347.36256852675803</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>320</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>1546.8112503411601</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="2">
@@ -1082,16 +1101,16 @@
       <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>226.17606601166199</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>220</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>806.90404559945705</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>3504.5225397079198</v>
       </c>
       <c r="I6" s="2">
@@ -1111,16 +1130,16 @@
       <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>211.716307131614</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>233</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>990.96461633817501</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="2">
@@ -1140,16 +1159,16 @@
       <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>257.88207706682698</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>253</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>1608.8745177251201</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>2808.1089602177499</v>
       </c>
       <c r="I8" s="2">
@@ -1169,16 +1188,16 @@
       <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
         <v>249</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>1348.8983236897</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>3384.09252974336</v>
       </c>
       <c r="I9" s="2">
@@ -1198,16 +1217,16 @@
       <c r="D10" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>310.86325659709797</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>320</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>958.97459010287298</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>4443.18537126922</v>
       </c>
       <c r="I10" s="2">
@@ -1227,16 +1246,16 @@
       <c r="D11" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>355.01266336060502</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>291</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>758.81365049938904</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>3206.7249139925102</v>
       </c>
       <c r="I11" s="2">
@@ -1256,16 +1275,16 @@
       <c r="D12" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>390.08691627343001</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>377</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>4252.6128161922998</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="2">
@@ -1285,16 +1304,16 @@
       <c r="D13" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>300.32954486803698</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>297</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>1026.2977632910699</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I13" s="2">
@@ -1314,16 +1333,16 @@
       <c r="D14" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>308.58862487872102</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>273</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>1023.54696856111</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>4312.7387307139898</v>
       </c>
       <c r="I14" s="2">
@@ -1343,16 +1362,16 @@
       <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>303.39181331441802</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>301</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>3676.4548510169502</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I15" s="2">
@@ -1372,16 +1391,16 @@
       <c r="D16" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>147.734385259459</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>249</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>1726.2056371035001</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>4209.33431354599</v>
       </c>
       <c r="I16" s="2">
@@ -1401,16 +1420,16 @@
       <c r="D17" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>204.951646866499</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>220</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>2710.8963829378499</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I17" s="2">
@@ -1430,16 +1449,16 @@
       <c r="D18" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>127.315612101837</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>173</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>1370.85664615263</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I18" s="2">
@@ -1459,16 +1478,16 @@
       <c r="D19" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>338.51331890649902</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>309</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>694.14071404866695</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>3347.5697586329602</v>
       </c>
       <c r="I19" s="2">
@@ -1488,16 +1507,16 @@
       <c r="D20" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
         <v>206</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>564.41134692149603</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>3933.94272435931</v>
       </c>
       <c r="I20" s="2">
@@ -1517,16 +1536,16 @@
       <c r="D21" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>250.99376189724799</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>241</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>1373.3421525607801</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="3">
         <v>2019.3917918884699</v>
       </c>
       <c r="I21" s="2">
@@ -1546,16 +1565,16 @@
       <c r="D22" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>201.56280203601699</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>197</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>440.470081083313</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>4268.2798468440496</v>
       </c>
       <c r="I22" s="2">
@@ -1575,16 +1594,16 @@
       <c r="D23" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>140.202488666189</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>184</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>2134.9435596603798</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I23" s="2">
@@ -1604,16 +1623,16 @@
       <c r="D24" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>263.94054475214602</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>235</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="3">
         <v>1241.360519973</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <v>4376.31447858515</v>
       </c>
       <c r="I24" s="2">
@@ -1633,16 +1652,16 @@
       <c r="D25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
         <v>231</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="3">
         <v>1227.04610395847</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <v>3229.28420973936</v>
       </c>
       <c r="I25" s="2">
@@ -1662,16 +1681,16 @@
       <c r="D26" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
         <v>271</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="3">
         <v>2184.7387861382699</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <v>4590.4844979673298</v>
       </c>
       <c r="I26" s="2">
@@ -1691,16 +1710,16 @@
       <c r="D27" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>299.00582886709202</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>293</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="3">
         <v>1031.47978191321</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="3">
         <v>2754.7914109391199</v>
       </c>
       <c r="I27" s="2">
@@ -1720,16 +1739,16 @@
       <c r="D28" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>337.09701114991702</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>340</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="3">
         <v>1410.0821220841401</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <v>4312.64306580634</v>
       </c>
       <c r="I28" s="2">
@@ -1749,16 +1768,16 @@
       <c r="D29" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
         <v>334</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="3">
         <v>4300.8208920678599</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I29" s="2">
@@ -1778,16 +1797,16 @@
       <c r="D30" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>379.796200849039</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>312</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="3">
         <v>1119.37018264375</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>2770.7221557984099</v>
       </c>
       <c r="I30" s="2">
@@ -1807,16 +1826,16 @@
       <c r="D31" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>316.24032599404001</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>278</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="3">
         <v>883.29840937084896</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="3">
         <v>3824.1467457059598</v>
       </c>
       <c r="I31" s="2">
@@ -1836,16 +1855,16 @@
       <c r="D32" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>324.11606310757298</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <v>325</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="3">
         <v>1829.7808210754199</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="3">
         <v>3259.14114212205</v>
       </c>
       <c r="I32" s="2">
@@ -1865,16 +1884,16 @@
       <c r="D33" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>295.98905640205999</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="4">
         <v>288</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="3">
         <v>1808.6420683971901</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="3">
         <v>3743.4928618966201</v>
       </c>
       <c r="I33" s="2">
@@ -1894,16 +1913,16 @@
       <c r="D34" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>200.517593339613</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>276</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="3">
         <v>843.77977282557902</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="3">
         <v>2850.3352967586102</v>
       </c>
       <c r="I34" s="2">
@@ -1923,16 +1942,16 @@
       <c r="D35" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>252.99228741940999</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>258</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="3">
         <v>299.02719673142201</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="3">
         <v>4526.0078460204504</v>
       </c>
       <c r="I35" s="2">
@@ -1952,16 +1971,16 @@
       <c r="D36" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>333.917720822825</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="4">
         <v>324</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="3">
         <v>1947.8359577189101</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="3">
         <v>2702.0390645518601</v>
       </c>
       <c r="I36" s="2">
@@ -1981,16 +2000,16 @@
       <c r="D37" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>149.38572205543201</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>305</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="3">
         <v>575.86415050883102</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="3">
         <v>4083.9140606517099</v>
       </c>
       <c r="I37" s="2">
@@ -2010,16 +2029,16 @@
       <c r="D38" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>275.26246318672798</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="4">
         <v>274</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="3">
         <v>849.87639797193197</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="3">
         <v>3417.3848911375599</v>
       </c>
       <c r="I38" s="2">
@@ -2039,16 +2058,16 @@
       <c r="D39" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39">
+      <c r="E39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
         <v>190</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="3">
         <v>1094.48577595956</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="3">
         <v>4292.8028884728201</v>
       </c>
       <c r="I39" s="2">
@@ -2068,16 +2087,16 @@
       <c r="D40" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>361.52103718317102</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="4">
         <v>321</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="3">
         <v>765.73747542190301</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I40" s="2">
@@ -2097,16 +2116,16 @@
       <c r="D41" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
         <v>374</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="3">
         <v>2921.7552078724402</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I41" s="2">
@@ -2126,16 +2145,16 @@
       <c r="D42" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>254.422946790488</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>258</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="3">
         <v>2935.4374668293399</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I42" s="2">
@@ -2155,16 +2174,16 @@
       <c r="D43" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>200.19942038182199</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>203</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="3">
         <v>596.659029085371</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="3">
         <v>4663.5026654085896</v>
       </c>
       <c r="I43" s="2">
@@ -2184,16 +2203,16 @@
       <c r="D44" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>349.05696724560698</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <v>335</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="3">
         <v>512.41339951901898</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="3">
         <v>2868.6421962478898</v>
       </c>
       <c r="I44" s="2">
@@ -2213,16 +2232,16 @@
       <c r="D45" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>211.873240952315</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>180</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="3">
         <v>1362.7278554362699</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I45" s="2">
@@ -2242,16 +2261,16 @@
       <c r="D46" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>217.20122298194499</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>214</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="3">
         <v>758.95199235923201</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I46" s="2">
@@ -2271,16 +2290,16 @@
       <c r="D47" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>246.22014271438599</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>338</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="3">
         <v>2231.69254855489</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I47" s="2">
@@ -2300,16 +2319,16 @@
       <c r="D48" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
         <v>101</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="3">
         <v>2351.5233572430402</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="3">
         <v>3805.2678665450699</v>
       </c>
       <c r="I48" s="2">
@@ -2329,16 +2348,16 @@
       <c r="D49" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>368.409820479134</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <v>365</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="3">
         <v>393.56569181070302</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="3">
         <v>4292.9139352889997</v>
       </c>
       <c r="I49" s="2">
@@ -2358,16 +2377,16 @@
       <c r="D50" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>206.22854500302901</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <v>302</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="3">
         <v>521.35575951126395</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="3">
         <v>3421.6621576241901</v>
       </c>
       <c r="I50" s="2">
@@ -2387,16 +2406,16 @@
       <c r="D51" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>388.92380899565501</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>282</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="3">
         <v>3597.1822198575201</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I51" s="2">
@@ -2416,16 +2435,16 @@
       <c r="D52" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>240.75480462586799</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>226</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="3">
         <v>2108.1039019056898</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I52" s="2">
@@ -2445,16 +2464,16 @@
       <c r="D53" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>216.56257943656999</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>208</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="3">
         <v>552.35875429434498</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="3">
         <v>3957.6495654540099</v>
       </c>
       <c r="I53" s="2">
@@ -2474,16 +2493,16 @@
       <c r="D54" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>308.78625948723902</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>307</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="3">
         <v>650.22688044746496</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="3">
         <v>4443.6186084992196</v>
       </c>
       <c r="I54" s="2">
@@ -2503,16 +2522,16 @@
       <c r="D55" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>304.95469625098099</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <v>321</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="3">
         <v>670.51329250896697</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="3">
         <v>2701.9659072259401</v>
       </c>
       <c r="I55" s="2">
@@ -2532,16 +2551,16 @@
       <c r="D56" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>252.89017290259201</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="4">
         <v>249</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="3">
         <v>1089.17105285772</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="3">
         <v>4664.8243642473699</v>
       </c>
       <c r="I56" s="2">
@@ -2561,16 +2580,16 @@
       <c r="D57" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>234.685094428253</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <v>241</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="3">
         <v>386.449865186728</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="3">
         <v>4891.2970510924197</v>
       </c>
       <c r="I57" s="2">
@@ -2590,16 +2609,16 @@
       <c r="D58" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>203.669805568058</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="4">
         <v>233</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="G58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I58" s="2">
@@ -2619,16 +2638,16 @@
       <c r="D59" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>258.25928833493703</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="4">
         <v>262</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="3">
         <v>692.39991299258395</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="3">
         <v>4218.1194383747797</v>
       </c>
       <c r="I59" s="2">
@@ -2648,16 +2667,16 @@
       <c r="D60" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>216.23021199097701</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="4">
         <v>202</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="3">
         <v>1052.3310757162701</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="3">
         <v>4206.54676482176</v>
       </c>
       <c r="I60" s="2">
@@ -2677,16 +2696,16 @@
       <c r="D61" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>239.40526136616299</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="4">
         <v>237</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="3">
         <v>1723.8971080782101</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="3">
         <v>4047.6034085247402</v>
       </c>
       <c r="I61" s="2">
@@ -2706,16 +2725,16 @@
       <c r="D62" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>249.524581842956</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="4">
         <v>272</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="3">
         <v>990.39417153860097</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="2">
@@ -2735,16 +2754,16 @@
       <c r="D63" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>194.36964804228299</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="4">
         <v>205</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="3">
         <v>1255.1175211969501</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="3">
         <v>4265.4565282102703</v>
       </c>
       <c r="I63" s="2">
@@ -2764,16 +2783,16 @@
       <c r="D64" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>347.19075316641198</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="4">
         <v>260</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="3">
         <v>972.06593460983402</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="3">
         <v>2900.6782755188701</v>
       </c>
       <c r="I64" s="2">
@@ -2793,16 +2812,16 @@
       <c r="D65" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>209.426394386444</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="4">
         <v>179</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="3">
         <v>897.73285334968</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="3">
         <v>3760.7106209365502</v>
       </c>
       <c r="I65" s="2">
@@ -2822,16 +2841,16 @@
       <c r="D66" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>249.86087932255899</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="4">
         <v>286</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="3">
         <v>528.582501864341</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="3">
         <v>3873.1166841172899</v>
       </c>
       <c r="I66" s="2">
@@ -2851,16 +2870,16 @@
       <c r="D67" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>286.37926844374601</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="4">
         <v>287</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="3">
         <v>361.65062488860298</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="3">
         <v>3714.0617472358599</v>
       </c>
       <c r="I67" s="2">
@@ -2880,16 +2899,16 @@
       <c r="D68" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="3">
         <v>313.48940507758698</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="4">
         <v>327</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="3">
         <v>716.43114722801602</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="3">
         <v>4931.7766725182801</v>
       </c>
       <c r="I68" s="2">
@@ -2909,16 +2928,16 @@
       <c r="D69" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="3">
         <v>236.190274849346</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="4">
         <v>229</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="3">
         <v>1463.91645389889</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="3">
         <v>4323.0244476804</v>
       </c>
       <c r="I69" s="2">
@@ -2938,16 +2957,16 @@
       <c r="D70" t="s">
         <v>0</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>252.61786464450799</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="4">
         <v>256</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="3">
         <v>2294.6065614955201</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="3">
         <v>4383.8153346405797</v>
       </c>
       <c r="I70" s="2">
@@ -2967,16 +2986,16 @@
       <c r="D71" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="3">
         <v>290.59987488551002</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="4">
         <v>287</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="3">
         <v>4407.65845341356</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I71" s="2">
@@ -2996,16 +3015,16 @@
       <c r="D72" t="s">
         <v>0</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="3">
         <v>287.630060926086</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="4">
         <v>279</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="3">
         <v>991.50992234914395</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="3">
         <v>1888.1650406262299</v>
       </c>
       <c r="I72" s="2">
@@ -3025,16 +3044,16 @@
       <c r="D73" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="3">
         <v>183.624205246673</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="4">
         <v>185</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="3">
         <v>1143.8573227075599</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I73" s="2">
@@ -3054,16 +3073,16 @@
       <c r="D74" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="3">
         <v>276.46624532249501</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="4">
         <v>268</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="3">
         <v>819.61263052894105</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I74" s="2">
@@ -3083,16 +3102,16 @@
       <c r="D75" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="3">
         <v>313.54053084109597</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="4">
         <v>319</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="3">
         <v>4560.9836073711303</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I75" s="2">
@@ -3112,16 +3131,16 @@
       <c r="D76" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="3">
         <v>339.59305943761598</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="4">
         <v>313</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="3">
         <v>1969.14260059649</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="3">
         <v>2390.52002056844</v>
       </c>
       <c r="I76" s="2">
@@ -3141,16 +3160,16 @@
       <c r="D77" t="s">
         <v>0</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="3">
         <v>302.83407961466298</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="4">
         <v>281</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="3">
         <v>828.89444659660899</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="3">
         <v>3987.5056457748001</v>
       </c>
       <c r="I77" s="2">
@@ -3170,16 +3189,16 @@
       <c r="D78" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="3">
         <v>384.74292561472498</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="4">
         <v>277</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="3">
         <v>598.99724918568995</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="3">
         <v>4606.5553705326402</v>
       </c>
       <c r="I78" s="2">
@@ -3199,16 +3218,16 @@
       <c r="D79" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="3">
         <v>267.66245443356701</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="4">
         <v>240</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="3">
         <v>822.21173627486996</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="3">
         <v>3666.0571391426502</v>
       </c>
       <c r="I79" s="2">
@@ -3228,16 +3247,16 @@
       <c r="D80" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="3">
         <v>250.92736286302801</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="4">
         <v>254</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="3">
         <v>645.54783374057604</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I80" s="2">
@@ -3257,16 +3276,16 @@
       <c r="D81" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="3">
         <v>271.61128970267401</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="4">
         <v>339</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="3">
         <v>1779.4959845374899</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="3">
         <v>3772.84237887777</v>
       </c>
       <c r="I81" s="2">
@@ -3286,16 +3305,16 @@
       <c r="D82" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="3">
         <v>303.47382879326898</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="4">
         <v>280</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="3">
         <v>1432.30536747479</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I82" s="2">
@@ -3315,16 +3334,16 @@
       <c r="D83" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="3">
         <v>247.38661572294399</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="4">
         <v>256</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="3">
         <v>1277.5700847450501</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="3">
         <v>3354.0926549191099</v>
       </c>
       <c r="I83" s="2">
@@ -3344,16 +3363,16 @@
       <c r="D84" t="s">
         <v>0</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="3">
         <v>274.76956925260498</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="4">
         <v>224</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="3">
         <v>773.61039317527604</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="3">
         <v>3523.32427661474</v>
       </c>
       <c r="I84" s="2">
@@ -3373,16 +3392,16 @@
       <c r="D85" t="s">
         <v>0</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="3">
         <v>249.870763089306</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="4">
         <v>217</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="3">
         <v>487.47465158508101</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="3">
         <v>4256.6335854613799</v>
       </c>
       <c r="I85" s="2">
@@ -3402,16 +3421,16 @@
       <c r="D86" t="s">
         <v>0</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86">
+      <c r="E86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4">
         <v>224</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86" s="3">
         <v>963.94803863356196</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="3">
         <v>3616.2758442211398</v>
       </c>
       <c r="I86" s="2">
@@ -3431,16 +3450,16 @@
       <c r="D87" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="3">
         <v>324.08312763310198</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="4">
         <v>325</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="3">
         <v>524.94745208622999</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="3">
         <v>4382.9508880933399</v>
       </c>
       <c r="I87" s="2">
@@ -3460,16 +3479,16 @@
       <c r="D88" t="s">
         <v>0</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="3">
         <v>345.05270985016301</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="4">
         <v>354</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="3">
         <v>1020.19353183983</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="3">
         <v>2735.06386899773</v>
       </c>
       <c r="I88" s="2">
@@ -3489,16 +3508,16 @@
       <c r="D89" t="s">
         <v>0</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="3">
         <v>241.791223886506</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="4">
         <v>231</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89" s="3">
         <v>3584.89792400541</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I89" s="2">
@@ -3518,16 +3537,16 @@
       <c r="D90" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="3">
         <v>331.70156481789098</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="4">
         <v>332</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="3">
         <v>1877.46219078288</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="3">
         <v>4005.8668253871701</v>
       </c>
       <c r="I90" s="2">
@@ -3547,16 +3566,16 @@
       <c r="D91" t="s">
         <v>0</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="3">
         <v>371.04384721887402</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="4">
         <v>354</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="3">
         <v>3225.6983995447699</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I91" s="2">
@@ -3576,16 +3595,16 @@
       <c r="D92" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="3">
         <v>228.90172769638701</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="4">
         <v>251</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="3">
         <v>860.82982962640801</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I92" s="2">
@@ -3605,16 +3624,16 @@
       <c r="D93" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="3">
         <v>327.90096071719501</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="4">
         <v>344</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="3">
         <v>1232.8257030837799</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I93" s="2">
@@ -3634,16 +3653,16 @@
       <c r="D94" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="3">
         <v>313.71271292088898</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="4">
         <v>311</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="3">
         <v>1436.85179216149</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I94" s="2">
@@ -3663,16 +3682,16 @@
       <c r="D95" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="3">
         <v>317.63130026965399</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="4">
         <v>304</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95" s="3">
         <v>903.26787860348998</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="H95" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I95" s="2">
@@ -3692,16 +3711,16 @@
       <c r="D96" t="s">
         <v>0</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="3">
         <v>248.14604900309001</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="4">
         <v>255</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="3">
         <v>3716.5852081896401</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I96" s="2">
@@ -3721,16 +3740,16 @@
       <c r="D97" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="3">
         <v>259.89965734996201</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="4">
         <v>242</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="3">
         <v>1638.9848481272199</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="3">
         <v>4581.95580817272</v>
       </c>
       <c r="I97" s="2">
@@ -3750,16 +3769,16 @@
       <c r="D98" t="s">
         <v>0</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F98">
+      <c r="E98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4">
         <v>290</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="3">
         <v>874.41575071215698</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="3">
         <v>2871.1665857061898</v>
       </c>
       <c r="I98" s="2">
@@ -3779,16 +3798,16 @@
       <c r="D99" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F99">
+      <c r="E99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" s="4">
         <v>382</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="3">
         <v>1184.6258389334901</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="3">
         <v>4790.2155246290504</v>
       </c>
       <c r="I99" s="2">
@@ -3808,16 +3827,16 @@
       <c r="D100" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="3">
         <v>348.25987946715497</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="4">
         <v>285</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="3">
         <v>705.23060869332801</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="3">
         <v>2492.1444398767899</v>
       </c>
       <c r="I100" s="2">
@@ -3837,16 +3856,16 @@
       <c r="D101" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="3">
         <v>235.09877322456001</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="4">
         <v>236</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="3">
         <v>522.26308316764801</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="3">
         <v>3332.23449454711</v>
       </c>
       <c r="I101" s="2">
@@ -3866,16 +3885,16 @@
       <c r="D102" t="s">
         <v>0</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102">
+      <c r="E102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" s="4">
         <v>270</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="3">
         <v>1995.83007045303</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I102" s="2">
@@ -3895,16 +3914,16 @@
       <c r="D103" t="s">
         <v>0</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="3">
         <v>266.64553467993198</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="4">
         <v>272</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="3">
         <v>1099.7602761221401</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="3">
         <v>3389.4817586859099</v>
       </c>
       <c r="I103" s="2">
@@ -3924,16 +3943,16 @@
       <c r="D104" t="s">
         <v>0</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="3">
         <v>323.47522546412603</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="4">
         <v>299</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104" s="3">
         <v>1306.4409158312901</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104" s="3">
         <v>4071.20276248342</v>
       </c>
       <c r="I104" s="2">
@@ -3953,16 +3972,16 @@
       <c r="D105" t="s">
         <v>0</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F105">
+      <c r="E105" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" s="4">
         <v>351</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="3">
         <v>3078.1106934275199</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H105" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I105" s="2">
@@ -3982,16 +4001,16 @@
       <c r="D106" t="s">
         <v>0</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="3">
         <v>315.29337457869701</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="4">
         <v>263</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="3">
         <v>541.72015798424695</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="3">
         <v>3599.6295894697</v>
       </c>
       <c r="I106" s="2">
@@ -4011,16 +4030,16 @@
       <c r="D107" t="s">
         <v>0</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="3">
         <v>146.27242609506399</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="4">
         <v>261</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="3">
         <v>757.52913636649998</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="H107" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I107" s="2">
@@ -4040,16 +4059,16 @@
       <c r="D108" t="s">
         <v>0</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="3">
         <v>214.441230787584</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="4">
         <v>273</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="3">
         <v>1380.2039219513499</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I108" s="2">
@@ -4069,16 +4088,16 @@
       <c r="D109" t="s">
         <v>0</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="3">
         <v>250.48054795182199</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="4">
         <v>261</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="3">
         <v>842.94148836596196</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109" s="3">
         <v>3808.3474358982799</v>
       </c>
       <c r="I109" s="2">
@@ -4098,16 +4117,16 @@
       <c r="D110" t="s">
         <v>0</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="3">
         <v>205.380329906605</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="4">
         <v>238</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="3">
         <v>950.35193877174902</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="3">
         <v>1310.46254180706</v>
       </c>
       <c r="I110" s="2">
@@ -4127,16 +4146,16 @@
       <c r="D111" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F111">
+      <c r="E111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" s="4">
         <v>330</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="3">
         <v>1599.71531946701</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="3">
         <v>4276.9230241405303</v>
       </c>
       <c r="I111" s="2">
@@ -4156,16 +4175,16 @@
       <c r="D112" t="s">
         <v>0</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="3">
         <v>295.74864306361297</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="4">
         <v>298</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="3">
         <v>957.45110436156597</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="3">
         <v>4755.7081712860299</v>
       </c>
       <c r="I112" s="2">
@@ -4185,16 +4204,16 @@
       <c r="D113" t="s">
         <v>0</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="3">
         <v>332.71286437902103</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="4">
         <v>349</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="3">
         <v>696.475970107997</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H113" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I113" s="2">
@@ -4214,16 +4233,16 @@
       <c r="D114" t="s">
         <v>0</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="3">
         <v>365.59581235101302</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="4">
         <v>367</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114" s="3">
         <v>725.156351912525</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="3">
         <v>3617.3433141293799</v>
       </c>
       <c r="I114" s="2">
@@ -4243,16 +4262,16 @@
       <c r="D115" t="s">
         <v>0</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="3">
         <v>368.12046696368799</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="4">
         <v>258</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115" s="3">
         <v>1128.3234423235399</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="H115" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I115" s="2">
@@ -4272,16 +4291,16 @@
       <c r="D116" t="s">
         <v>0</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="3">
         <v>207.17413215937401</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="4">
         <v>268</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G116" s="3">
         <v>537.31858650908896</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="H116" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I116" s="2">
@@ -4301,16 +4320,16 @@
       <c r="D117" t="s">
         <v>0</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="3">
         <v>264.55824166853603</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="4">
         <v>263</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G117" s="3">
         <v>1436.9948384368099</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="H117" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I117" s="2">
@@ -4330,16 +4349,16 @@
       <c r="D118" t="s">
         <v>0</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="3">
         <v>217.343403581053</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="4">
         <v>273</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118" s="3">
         <v>840.63488437673095</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H118" s="3">
         <v>4827.0940406652198</v>
       </c>
       <c r="I118" s="2">
@@ -4359,16 +4378,16 @@
       <c r="D119" t="s">
         <v>2</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="3">
         <v>316.483005008178</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="4">
         <v>267</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119" s="3">
         <v>3004.4321271611202</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="H119" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I119" s="2">
@@ -4388,16 +4407,16 @@
       <c r="D120" t="s">
         <v>0</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="3">
         <v>78.473469241161794</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="4">
         <v>84</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G120" s="3">
         <v>1631.4578828697199</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H120" s="3">
         <v>2896.62059350359</v>
       </c>
       <c r="I120" s="2">
@@ -4417,16 +4436,16 @@
       <c r="D121" t="s">
         <v>0</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="3">
         <v>301.81435953307101</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="4">
         <v>314</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121" s="3">
         <v>1053.2940826259201</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H121" s="3">
         <v>4431.9115027555699</v>
       </c>
       <c r="I121" s="2">
@@ -4446,16 +4465,16 @@
       <c r="D122" t="s">
         <v>0</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="3">
         <v>285.091207310014</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="4">
         <v>301</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122" s="3">
         <v>1800.31734780891</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122" s="3">
         <v>4818.9599335420598</v>
       </c>
       <c r="I122" s="2">
@@ -4475,16 +4494,16 @@
       <c r="D123" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F123">
+      <c r="E123" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" s="4">
         <v>271</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123" s="3">
         <v>1835.9039321087801</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="H123" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I123" s="2">
@@ -4504,16 +4523,16 @@
       <c r="D124" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="3">
         <v>244.849180302722</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="4">
         <v>255</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124" s="3">
         <v>722.57515437737402</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="H124" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I124" s="2">
@@ -4533,16 +4552,16 @@
       <c r="D125" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="3">
         <v>255.93702904664099</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="4">
         <v>258</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125" s="3">
         <v>651.62805093874601</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125" s="3">
         <v>4966.7609890936701</v>
       </c>
       <c r="I125" s="2">
@@ -4562,16 +4581,16 @@
       <c r="D126" t="s">
         <v>0</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="3">
         <v>341.35000983079101</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="4">
         <v>340</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G126" s="3">
         <v>699.54085262450997</v>
       </c>
-      <c r="H126" s="2">
+      <c r="H126" s="3">
         <v>3281.6067403501102</v>
       </c>
       <c r="I126" s="2">
@@ -4591,16 +4610,16 @@
       <c r="D127" t="s">
         <v>0</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F127">
+      <c r="E127" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" s="4">
         <v>340</v>
       </c>
-      <c r="G127" s="2">
+      <c r="G127" s="3">
         <v>1164.7252504272999</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="H127" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I127" s="2">
@@ -4620,16 +4639,16 @@
       <c r="D128" t="s">
         <v>0</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F128">
+      <c r="E128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" s="4">
         <v>290</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G128" s="3">
         <v>1387.0664418061499</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H128" s="3">
         <v>4105.2418626711396</v>
       </c>
       <c r="I128" s="2">
@@ -4649,16 +4668,16 @@
       <c r="D129" t="s">
         <v>0</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="3">
         <v>340.170204600516</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="4">
         <v>336</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G129" s="3">
         <v>1233.6833397955199</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="H129" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I129" s="2">
@@ -4678,16 +4697,16 @@
       <c r="D130" t="s">
         <v>2</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="3">
         <v>222.86822664963901</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="4">
         <v>224</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130" s="3">
         <v>1062.5261479410101</v>
       </c>
-      <c r="H130" s="2">
+      <c r="H130" s="3">
         <v>4005.4687965510202</v>
       </c>
       <c r="I130" s="2">
@@ -4707,16 +4726,16 @@
       <c r="D131" t="s">
         <v>0</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="3">
         <v>332.80904369522602</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="4">
         <v>297</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131" s="3">
         <v>2017.29207951733</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H131" s="3">
         <v>3312.1414994132701</v>
       </c>
       <c r="I131" s="2">
@@ -4736,16 +4755,16 @@
       <c r="D132" t="s">
         <v>0</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="3">
         <v>349.99822365706098</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="4">
         <v>297</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132" s="3">
         <v>515.04112131617603</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H132" s="3">
         <v>4720.3566623147799</v>
       </c>
       <c r="I132" s="2">
@@ -4765,16 +4784,16 @@
       <c r="D133" t="s">
         <v>0</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="3">
         <v>292.100814534878</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="4">
         <v>295</v>
       </c>
-      <c r="G133" s="2">
+      <c r="G133" s="3">
         <v>781.96772128561599</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="H133" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I133" s="2">
@@ -4794,16 +4813,16 @@
       <c r="D134" t="s">
         <v>0</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="3">
         <v>343.01455880569102</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="4">
         <v>339</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134" s="3">
         <v>702.01637642616697</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="H134" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I134" s="2">
@@ -4823,16 +4842,16 @@
       <c r="D135" t="s">
         <v>0</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="3">
         <v>216.22994389627499</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="4">
         <v>308</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135" s="3">
         <v>2552.30391730157</v>
       </c>
-      <c r="H135" s="2">
+      <c r="H135" s="3">
         <v>2741.9370075173001</v>
       </c>
       <c r="I135" s="2">
@@ -4852,16 +4871,16 @@
       <c r="D136" t="s">
         <v>0</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F136">
+      <c r="E136" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="4">
         <v>215</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136" s="3">
         <v>2754.4830054181398</v>
       </c>
-      <c r="H136" s="2">
+      <c r="H136" s="3">
         <v>4479.4889010250899</v>
       </c>
       <c r="I136" s="2">
@@ -4881,16 +4900,16 @@
       <c r="D137" t="s">
         <v>0</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1</v>
-      </c>
-      <c r="G137" s="2">
+      <c r="E137" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
         <v>1243.2688188663999</v>
       </c>
-      <c r="H137" s="2">
+      <c r="H137" s="3">
         <v>4704.7056732954597</v>
       </c>
       <c r="I137" s="2">
@@ -4910,16 +4929,16 @@
       <c r="D138" t="s">
         <v>0</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="3">
         <v>373.70638264106901</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="4">
         <v>322</v>
       </c>
-      <c r="G138" s="2">
+      <c r="G138" s="3">
         <v>3841.1269568509201</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="H138" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I138" s="2">
@@ -4939,16 +4958,16 @@
       <c r="D139" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="3">
         <v>374.07953680350801</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="4">
         <v>371</v>
       </c>
-      <c r="G139" s="2">
+      <c r="G139" s="3">
         <v>880.720809903381</v>
       </c>
-      <c r="H139" s="2">
+      <c r="H139" s="3">
         <v>4048.6937981473602</v>
       </c>
       <c r="I139" s="2">
@@ -4968,16 +4987,16 @@
       <c r="D140" t="s">
         <v>0</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="3">
         <v>264.60858702367</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="4">
         <v>262</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G140" s="3">
         <v>1883.2211370877999</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="H140" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I140" s="2">
@@ -4997,16 +5016,16 @@
       <c r="D141" t="s">
         <v>0</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="3">
         <v>242.878374459632</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="4">
         <v>263</v>
       </c>
-      <c r="G141" s="2">
+      <c r="G141" s="3">
         <v>1791.2610124022499</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="H141" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I141" s="2">
@@ -5026,16 +5045,16 @@
       <c r="D142" t="s">
         <v>2</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F142">
+      <c r="E142" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" s="4">
         <v>287</v>
       </c>
-      <c r="G142" s="2">
+      <c r="G142" s="3">
         <v>160.636995948015</v>
       </c>
-      <c r="H142" s="2">
+      <c r="H142" s="3">
         <v>3800.5911357360301</v>
       </c>
       <c r="I142" s="2">
@@ -5055,16 +5074,16 @@
       <c r="D143" t="s">
         <v>0</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="3">
         <v>191.689094933505</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="4">
         <v>213</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G143" s="3">
         <v>456.50298698799401</v>
       </c>
-      <c r="H143" s="2">
+      <c r="H143" s="3">
         <v>3710.85627519133</v>
       </c>
       <c r="I143" s="2">
@@ -5084,16 +5103,16 @@
       <c r="D144" t="s">
         <v>0</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F144">
+      <c r="E144" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" s="4">
         <v>183</v>
       </c>
-      <c r="G144" s="2">
+      <c r="G144" s="3">
         <v>3210.7302242194301</v>
       </c>
-      <c r="H144" s="2">
+      <c r="H144" s="3">
         <v>3367.9402112298999</v>
       </c>
       <c r="I144" s="2">
@@ -5113,16 +5132,16 @@
       <c r="D145" t="s">
         <v>0</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="3">
         <v>311.34025293962998</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="4">
         <v>305</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G145" s="3">
         <v>3039.30261962637</v>
       </c>
-      <c r="H145" s="2" t="s">
+      <c r="H145" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I145" s="2">
@@ -5142,16 +5161,16 @@
       <c r="D146" t="s">
         <v>0</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="3">
         <v>300.52489235914697</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="4">
         <v>296</v>
       </c>
-      <c r="G146" s="2">
+      <c r="G146" s="3">
         <v>1946.9597828789699</v>
       </c>
-      <c r="H146" s="2" t="s">
+      <c r="H146" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I146" s="2">
@@ -5171,16 +5190,16 @@
       <c r="D147" t="s">
         <v>0</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F147">
+      <c r="E147" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="4">
         <v>215</v>
       </c>
-      <c r="G147" s="2">
+      <c r="G147" s="3">
         <v>1793.88164521409</v>
       </c>
-      <c r="H147" s="2">
+      <c r="H147" s="3">
         <v>3886.8498328553401</v>
       </c>
       <c r="I147" s="2">
@@ -5200,16 +5219,16 @@
       <c r="D148" t="s">
         <v>0</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F148">
+      <c r="E148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" s="4">
         <v>228</v>
       </c>
-      <c r="G148" s="2">
+      <c r="G148" s="3">
         <v>2114.8496525698101</v>
       </c>
-      <c r="H148" s="2" t="s">
+      <c r="H148" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I148" s="2">
@@ -5229,16 +5248,16 @@
       <c r="D149" t="s">
         <v>0</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="3">
         <v>220.400942487603</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="4">
         <v>213</v>
       </c>
-      <c r="G149" s="2">
+      <c r="G149" s="3">
         <v>1479.1505970810099</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="H149" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I149" s="2">
@@ -5258,16 +5277,16 @@
       <c r="D150" t="s">
         <v>0</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="3">
         <v>218.372799953705</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="4">
         <v>214</v>
       </c>
-      <c r="G150" s="2">
+      <c r="G150" s="3">
         <v>451.73252612532502</v>
       </c>
-      <c r="H150" s="2">
+      <c r="H150" s="3">
         <v>3448.95220516166</v>
       </c>
       <c r="I150" s="2">
@@ -5287,16 +5306,16 @@
       <c r="D151" t="s">
         <v>0</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="3">
         <v>373.79928607723201</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="4">
         <v>326</v>
       </c>
-      <c r="G151" s="2">
+      <c r="G151" s="3">
         <v>2176.73532754404</v>
       </c>
-      <c r="H151" s="2" t="s">
+      <c r="H151" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I151" s="2">
@@ -5316,16 +5335,16 @@
       <c r="D152" t="s">
         <v>0</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="3">
         <v>338.62069391343499</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="4">
         <v>344</v>
       </c>
-      <c r="G152" s="2">
+      <c r="G152" s="3">
         <v>1703.1964241250701</v>
       </c>
-      <c r="H152" s="2">
+      <c r="H152" s="3">
         <v>4219.7819713915396</v>
       </c>
       <c r="I152" s="2">
@@ -5345,16 +5364,16 @@
       <c r="D153" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="3">
         <v>314.12048749272901</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="4">
         <v>291</v>
       </c>
-      <c r="G153" s="2">
+      <c r="G153" s="3">
         <v>2331.84969216544</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="H153" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I153" s="2">
@@ -5374,16 +5393,16 @@
       <c r="D154" t="s">
         <v>0</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="3">
         <v>262.22843093004201</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="4">
         <v>266</v>
       </c>
-      <c r="G154" s="2">
+      <c r="G154" s="3">
         <v>715.71798010545899</v>
       </c>
-      <c r="H154" s="2">
+      <c r="H154" s="3">
         <v>5073.0421061725701</v>
       </c>
       <c r="I154" s="2">
@@ -5403,16 +5422,16 @@
       <c r="D155" t="s">
         <v>0</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="3">
         <v>286.86476313241599</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="4">
         <v>292</v>
       </c>
-      <c r="G155" s="2">
+      <c r="G155" s="3">
         <v>944.21951891388301</v>
       </c>
-      <c r="H155" s="2">
+      <c r="H155" s="3">
         <v>4148.1257875186702</v>
       </c>
       <c r="I155" s="2">
@@ -5432,16 +5451,16 @@
       <c r="D156" t="s">
         <v>0</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="3">
         <v>340.059404522242</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="4">
         <v>338</v>
       </c>
-      <c r="G156" s="2">
+      <c r="G156" s="3">
         <v>2971.8619086550202</v>
       </c>
-      <c r="H156" s="2" t="s">
+      <c r="H156" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I156" s="2">
@@ -5461,16 +5480,16 @@
       <c r="D157" t="s">
         <v>0</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F157">
+      <c r="E157" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="4">
         <v>312</v>
       </c>
-      <c r="G157" s="2">
+      <c r="G157" s="3">
         <v>1886.0474876482599</v>
       </c>
-      <c r="H157" s="2" t="s">
+      <c r="H157" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I157" s="2">
@@ -5490,16 +5509,16 @@
       <c r="D158" t="s">
         <v>0</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="3">
         <v>202.45020861761799</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="4">
         <v>205</v>
       </c>
-      <c r="G158" s="2">
+      <c r="G158" s="3">
         <v>625.70380627826296</v>
       </c>
-      <c r="H158" s="2" t="s">
+      <c r="H158" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I158" s="2">
@@ -5519,16 +5538,16 @@
       <c r="D159" t="s">
         <v>0</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F159">
+      <c r="E159" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="4">
         <v>236</v>
       </c>
-      <c r="G159" s="2">
+      <c r="G159" s="3">
         <v>3246.6516330578102</v>
       </c>
-      <c r="H159" s="2" t="s">
+      <c r="H159" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I159" s="2">
@@ -5548,16 +5567,16 @@
       <c r="D160" t="s">
         <v>0</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="3">
         <v>338.65110499784402</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="4">
         <v>326</v>
       </c>
-      <c r="G160" s="2">
+      <c r="G160" s="3">
         <v>3506.34831294281</v>
       </c>
-      <c r="H160" s="2" t="s">
+      <c r="H160" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I160" s="2">
@@ -5577,16 +5596,16 @@
       <c r="D161" t="s">
         <v>0</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="3">
         <v>237.438056920451</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="4">
         <v>224</v>
       </c>
-      <c r="G161" s="2">
+      <c r="G161" s="3">
         <v>587.05762808093095</v>
       </c>
-      <c r="H161" s="2">
+      <c r="H161" s="3">
         <v>4198.5700363014703</v>
       </c>
       <c r="I161" s="2">
@@ -5606,16 +5625,16 @@
       <c r="D162" t="s">
         <v>0</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="3">
         <v>303.98112203857499</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="4">
         <v>322</v>
       </c>
-      <c r="G162" s="2">
+      <c r="G162" s="3">
         <v>672.09291670568098</v>
       </c>
-      <c r="H162" s="2">
+      <c r="H162" s="3">
         <v>4477.4926885054902</v>
       </c>
       <c r="I162" s="2">
@@ -5635,16 +5654,16 @@
       <c r="D163" t="s">
         <v>0</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F163">
+      <c r="E163" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163" s="4">
         <v>229</v>
       </c>
-      <c r="G163" s="2">
+      <c r="G163" s="3">
         <v>1375.7914593108801</v>
       </c>
-      <c r="H163" s="2" t="s">
+      <c r="H163" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I163" s="2">
@@ -5664,16 +5683,16 @@
       <c r="D164" t="s">
         <v>0</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="3">
         <v>252.989048788616</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="4">
         <v>193</v>
       </c>
-      <c r="G164" s="2">
+      <c r="G164" s="3">
         <v>758.36640327963096</v>
       </c>
-      <c r="H164" s="2">
+      <c r="H164" s="3">
         <v>3826.3220729360801</v>
       </c>
       <c r="I164" s="2">
@@ -5693,16 +5712,16 @@
       <c r="D165" t="s">
         <v>0</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="3">
         <v>300.68704579106702</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="4">
         <v>288</v>
       </c>
-      <c r="G165" s="2">
+      <c r="G165" s="3">
         <v>646.18686971333</v>
       </c>
-      <c r="H165" s="2">
+      <c r="H165" s="3">
         <v>3945.37059249708</v>
       </c>
       <c r="I165" s="2">
@@ -5722,16 +5741,16 @@
       <c r="D166" t="s">
         <v>0</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="3">
         <v>200.81789557614101</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="4">
         <v>253</v>
       </c>
-      <c r="G166" s="2">
+      <c r="G166" s="3">
         <v>702.90851465841001</v>
       </c>
-      <c r="H166" s="2" t="s">
+      <c r="H166" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I166" s="2">
@@ -5751,16 +5770,16 @@
       <c r="D167" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="3">
         <v>334.97963077577401</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="4">
         <v>324</v>
       </c>
-      <c r="G167" s="2">
+      <c r="G167" s="3">
         <v>661.01188617326397</v>
       </c>
-      <c r="H167" s="2">
+      <c r="H167" s="3">
         <v>4472.6729520005501</v>
       </c>
       <c r="I167" s="2">
@@ -5780,16 +5799,16 @@
       <c r="D168" t="s">
         <v>0</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="3">
         <v>213.22976629900899</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="4">
         <v>220</v>
       </c>
-      <c r="G168" s="2">
+      <c r="G168" s="3">
         <v>1470.0420458578001</v>
       </c>
-      <c r="H168" s="2" t="s">
+      <c r="H168" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I168" s="2">
@@ -5809,16 +5828,16 @@
       <c r="D169" t="s">
         <v>0</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="3">
         <v>175.01831887538901</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="4">
         <v>225</v>
       </c>
-      <c r="G169" s="2">
+      <c r="G169" s="3">
         <v>3417.5842935324999</v>
       </c>
-      <c r="H169" s="2" t="s">
+      <c r="H169" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I169" s="2">
@@ -5838,16 +5857,16 @@
       <c r="D170" t="s">
         <v>0</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="3">
         <v>342.26469622949998</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="4">
         <v>353</v>
       </c>
-      <c r="G170" s="2">
+      <c r="G170" s="3">
         <v>2618.6464578002801</v>
       </c>
-      <c r="H170" s="2" t="s">
+      <c r="H170" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I170" s="2">
@@ -5867,16 +5886,16 @@
       <c r="D171" t="s">
         <v>0</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="3">
         <v>225.240917895639</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="4">
         <v>235</v>
       </c>
-      <c r="G171" s="2">
+      <c r="G171" s="3">
         <v>1114.7915632013901</v>
       </c>
-      <c r="H171" s="2">
+      <c r="H171" s="3">
         <v>2980.7823154464299</v>
       </c>
       <c r="I171" s="2">
@@ -5896,16 +5915,16 @@
       <c r="D172" t="s">
         <v>0</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172" s="3">
         <v>263.35121227016299</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="4">
         <v>275</v>
       </c>
-      <c r="G172" s="2">
+      <c r="G172" s="3">
         <v>911.55644701218205</v>
       </c>
-      <c r="H172" s="2">
+      <c r="H172" s="3">
         <v>4886.1616924683503</v>
       </c>
       <c r="I172" s="2">
@@ -5925,16 +5944,16 @@
       <c r="D173" t="s">
         <v>0</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="3">
         <v>333.05441142279801</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="4">
         <v>323</v>
       </c>
-      <c r="G173" s="2">
+      <c r="G173" s="3">
         <v>562.67188834003105</v>
       </c>
-      <c r="H173" s="2">
+      <c r="H173" s="3">
         <v>3811.8953735678701</v>
       </c>
       <c r="I173" s="2">
@@ -5954,16 +5973,16 @@
       <c r="D174" t="s">
         <v>2</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="3">
         <v>297.06338256317298</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="4">
         <v>302</v>
       </c>
-      <c r="G174" s="2">
+      <c r="G174" s="3">
         <v>820.99383613227599</v>
       </c>
-      <c r="H174" s="2" t="s">
+      <c r="H174" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I174" s="2">
@@ -5983,16 +6002,16 @@
       <c r="D175" t="s">
         <v>0</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="3">
         <v>385.59674663984202</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="4">
         <v>370</v>
       </c>
-      <c r="G175" s="2">
+      <c r="G175" s="3">
         <v>1262.1891172384701</v>
       </c>
-      <c r="H175" s="2">
+      <c r="H175" s="3">
         <v>3795.3076110193101</v>
       </c>
       <c r="I175" s="2">
@@ -6012,16 +6031,16 @@
       <c r="D176" t="s">
         <v>0</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F176">
+      <c r="E176" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" s="4">
         <v>272</v>
       </c>
-      <c r="G176" s="2">
+      <c r="G176" s="3">
         <v>2122.2930736458902</v>
       </c>
-      <c r="H176" s="2">
+      <c r="H176" s="3">
         <v>3536.0778322111501</v>
       </c>
       <c r="I176" s="2">
@@ -6041,16 +6060,16 @@
       <c r="D177" t="s">
         <v>0</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F177">
+      <c r="E177" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F177" s="4">
         <v>278</v>
       </c>
-      <c r="G177" s="2">
+      <c r="G177" s="3">
         <v>3080.4878170482102</v>
       </c>
-      <c r="H177" s="2">
+      <c r="H177" s="3">
         <v>4716.1437670592604</v>
       </c>
       <c r="I177" s="2">
@@ -6070,16 +6089,16 @@
       <c r="D178" t="s">
         <v>0</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="3">
         <v>361.35899852855101</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="4">
         <v>269</v>
       </c>
-      <c r="G178" s="2">
+      <c r="G178" s="3">
         <v>1378.79693904285</v>
       </c>
-      <c r="H178" s="2" t="s">
+      <c r="H178" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I178" s="2">
@@ -6099,16 +6118,16 @@
       <c r="D179" t="s">
         <v>0</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="3">
         <v>251.42758285564801</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="4">
         <v>257</v>
       </c>
-      <c r="G179" s="2">
+      <c r="G179" s="3">
         <v>1091.29065729946</v>
       </c>
-      <c r="H179" s="2">
+      <c r="H179" s="3">
         <v>2465.2330401378099</v>
       </c>
       <c r="I179" s="2">
@@ -6128,16 +6147,16 @@
       <c r="D180" t="s">
         <v>0</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="3">
         <v>317.86840195337402</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="4">
         <v>292</v>
       </c>
-      <c r="G180" s="2">
+      <c r="G180" s="3">
         <v>737.22335563054605</v>
       </c>
-      <c r="H180" s="2">
+      <c r="H180" s="3">
         <v>4235.8982335277997</v>
       </c>
       <c r="I180" s="2">
@@ -6157,16 +6176,16 @@
       <c r="D181" t="s">
         <v>0</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F181">
+      <c r="E181" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F181" s="4">
         <v>309</v>
       </c>
-      <c r="G181" s="2">
+      <c r="G181" s="3">
         <v>2781.17336465383</v>
       </c>
-      <c r="H181" s="2" t="s">
+      <c r="H181" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I181" s="2">
@@ -6186,16 +6205,16 @@
       <c r="D182" t="s">
         <v>0</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182" s="3">
         <v>282.08314517618101</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="4">
         <v>290</v>
       </c>
-      <c r="G182" s="2">
+      <c r="G182" s="3">
         <v>1632.0030634299801</v>
       </c>
-      <c r="H182" s="2">
+      <c r="H182" s="3">
         <v>3944.2511977733998</v>
       </c>
       <c r="I182" s="2">
@@ -6215,16 +6234,16 @@
       <c r="D183" t="s">
         <v>0</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="3">
         <v>218.26305988859201</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="4">
         <v>215</v>
       </c>
-      <c r="G183" s="2">
+      <c r="G183" s="3">
         <v>3703.1913056623898</v>
       </c>
-      <c r="H183" s="2" t="s">
+      <c r="H183" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I183" s="2">
@@ -6244,16 +6263,16 @@
       <c r="D184" t="s">
         <v>0</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="3">
         <v>349.105707130307</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="4">
         <v>297</v>
       </c>
-      <c r="G184" s="2">
+      <c r="G184" s="3">
         <v>685.19209373376395</v>
       </c>
-      <c r="H184" s="2" t="s">
+      <c r="H184" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I184" s="2">
@@ -6273,16 +6292,16 @@
       <c r="D185" t="s">
         <v>0</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="3">
         <v>395.20237420690597</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="4">
         <v>394</v>
       </c>
-      <c r="G185" s="2">
+      <c r="G185" s="3">
         <v>1449.3650915166299</v>
       </c>
-      <c r="H185" s="2">
+      <c r="H185" s="3">
         <v>2736.5304767402199</v>
       </c>
       <c r="I185" s="2">
@@ -6302,16 +6321,16 @@
       <c r="D186" t="s">
         <v>0</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186" s="3">
         <v>334.66759817369802</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="4">
         <v>339</v>
       </c>
-      <c r="G186" s="2">
+      <c r="G186" s="3">
         <v>682.72369870918897</v>
       </c>
-      <c r="H186" s="2" t="s">
+      <c r="H186" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I186" s="2">
@@ -6331,16 +6350,16 @@
       <c r="D187" t="s">
         <v>0</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187" s="3">
         <v>357.74209808062801</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="4">
         <v>356</v>
       </c>
-      <c r="G187" s="2">
+      <c r="G187" s="3">
         <v>683.41117555665596</v>
       </c>
-      <c r="H187" s="2" t="s">
+      <c r="H187" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I187" s="2">
@@ -6360,16 +6379,16 @@
       <c r="D188" t="s">
         <v>0</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188" s="3">
         <v>323.85618787688702</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="4">
         <v>331</v>
       </c>
-      <c r="G188" s="2">
+      <c r="G188" s="3">
         <v>405.48071586255998</v>
       </c>
-      <c r="H188" s="2">
+      <c r="H188" s="3">
         <v>5196.4924916243699</v>
       </c>
       <c r="I188" s="2">
@@ -6389,16 +6408,16 @@
       <c r="D189" t="s">
         <v>0</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189" s="3">
         <v>218.664591373604</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="4">
         <v>223</v>
       </c>
-      <c r="G189" s="2">
+      <c r="G189" s="3">
         <v>311.63868321202199</v>
       </c>
-      <c r="H189" s="2">
+      <c r="H189" s="3">
         <v>3390.8670542786299</v>
       </c>
       <c r="I189" s="2">
@@ -6418,16 +6437,16 @@
       <c r="D190" t="s">
         <v>0</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190" s="3">
         <v>294.74671602810002</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="4">
         <v>303</v>
       </c>
-      <c r="G190" s="2">
+      <c r="G190" s="3">
         <v>1167.7803137277001</v>
       </c>
-      <c r="H190" s="2">
+      <c r="H190" s="3">
         <v>2042.0522329284199</v>
       </c>
       <c r="I190" s="2">
@@ -6447,16 +6466,16 @@
       <c r="D191" t="s">
         <v>0</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E191" s="3">
         <v>260.370519864161</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="4">
         <v>261</v>
       </c>
-      <c r="G191" s="2">
+      <c r="G191" s="3">
         <v>1236.7841632636901</v>
       </c>
-      <c r="H191" s="2" t="s">
+      <c r="H191" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I191" s="2">
@@ -6476,16 +6495,16 @@
       <c r="D192" t="s">
         <v>0</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E192" s="3">
         <v>158.31409452437799</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="4">
         <v>283</v>
       </c>
-      <c r="G192" s="2">
+      <c r="G192" s="3">
         <v>1222.6039705354201</v>
       </c>
-      <c r="H192" s="2">
+      <c r="H192" s="3">
         <v>5015.0194079876201</v>
       </c>
       <c r="I192" s="2">
@@ -6505,16 +6524,16 @@
       <c r="D193" t="s">
         <v>0</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="3">
         <v>387.32491591883797</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="4">
         <v>323</v>
       </c>
-      <c r="G193" s="2">
+      <c r="G193" s="3">
         <v>1552.91775758677</v>
       </c>
-      <c r="H193" s="2" t="s">
+      <c r="H193" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I193" s="2">
@@ -6534,16 +6553,16 @@
       <c r="D194" t="s">
         <v>0</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194" s="3">
         <v>123.076576210349</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="4">
         <v>119</v>
       </c>
-      <c r="G194" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H194" s="2" t="s">
+      <c r="G194" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H194" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I194" s="2">
@@ -6563,16 +6582,16 @@
       <c r="D195" t="s">
         <v>0</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195" s="3">
         <v>331.195795921838</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="4">
         <v>324</v>
       </c>
-      <c r="G195" s="2">
+      <c r="G195" s="3">
         <v>736.72588437238005</v>
       </c>
-      <c r="H195" s="2" t="s">
+      <c r="H195" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I195" s="2">
@@ -6592,16 +6611,16 @@
       <c r="D196" t="s">
         <v>0</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E196" s="3">
         <v>333.93060090212498</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="4">
         <v>323</v>
       </c>
-      <c r="G196" s="2">
+      <c r="G196" s="3">
         <v>1815.7436957820601</v>
       </c>
-      <c r="H196" s="2" t="s">
+      <c r="H196" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I196" s="2">
@@ -6621,16 +6640,16 @@
       <c r="D197" t="s">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F197">
+      <c r="E197" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F197" s="4">
         <v>261</v>
       </c>
-      <c r="G197" s="2">
+      <c r="G197" s="3">
         <v>2425.5013825743599</v>
       </c>
-      <c r="H197" s="2">
+      <c r="H197" s="3">
         <v>4557.5054184625897</v>
       </c>
       <c r="I197" s="2">
@@ -6650,16 +6669,16 @@
       <c r="D198" t="s">
         <v>0</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="3">
         <v>375.41479090314903</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="4">
         <v>373</v>
       </c>
-      <c r="G198" s="2">
+      <c r="G198" s="3">
         <v>434.65850627411402</v>
       </c>
-      <c r="H198" s="2">
+      <c r="H198" s="3">
         <v>4336.31592863484</v>
       </c>
       <c r="I198" s="2">
@@ -6679,16 +6698,16 @@
       <c r="D199" t="s">
         <v>0</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F199">
+      <c r="E199" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F199" s="4">
         <v>211</v>
       </c>
-      <c r="G199" s="2">
+      <c r="G199" s="3">
         <v>1024.6136045961</v>
       </c>
-      <c r="H199" s="2">
+      <c r="H199" s="3">
         <v>4813.5805153969604</v>
       </c>
       <c r="I199" s="2">
@@ -6708,16 +6727,16 @@
       <c r="D200" t="s">
         <v>0</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F200">
+      <c r="E200" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F200" s="4">
         <v>308</v>
       </c>
-      <c r="G200" s="2">
+      <c r="G200" s="3">
         <v>1878.8608530732899</v>
       </c>
-      <c r="H200" s="2">
+      <c r="H200" s="3">
         <v>4962.0943690837203</v>
       </c>
       <c r="I200" s="2">
@@ -6737,16 +6756,16 @@
       <c r="D201" t="s">
         <v>0</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="3">
         <v>380.804843533856</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="4">
         <v>387</v>
       </c>
-      <c r="G201" s="2">
+      <c r="G201" s="3">
         <v>512.67574220059998</v>
       </c>
-      <c r="H201" s="2">
+      <c r="H201" s="3">
         <v>3911.5848998746701</v>
       </c>
       <c r="I201" s="2">
@@ -6766,16 +6785,16 @@
       <c r="D202" t="s">
         <v>2</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="3">
         <v>113.925972401667</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="4">
         <v>115</v>
       </c>
-      <c r="G202" s="2">
+      <c r="G202" s="3">
         <v>792.77820773198198</v>
       </c>
-      <c r="H202" s="2">
+      <c r="H202" s="3">
         <v>3961.4982052526798</v>
       </c>
       <c r="I202" s="2">
@@ -6795,16 +6814,16 @@
       <c r="D203" t="s">
         <v>0</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F203">
+      <c r="E203" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F203" s="4">
         <v>341</v>
       </c>
-      <c r="G203" s="2">
+      <c r="G203" s="3">
         <v>1574.50259045281</v>
       </c>
-      <c r="H203" s="2">
+      <c r="H203" s="3">
         <v>4394.31122748487</v>
       </c>
       <c r="I203" s="2">
@@ -6824,16 +6843,16 @@
       <c r="D204" t="s">
         <v>0</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="3">
         <v>275.39764718124798</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="4">
         <v>280</v>
       </c>
-      <c r="G204" s="2">
+      <c r="G204" s="3">
         <v>763.37339237760102</v>
       </c>
-      <c r="H204" s="2">
+      <c r="H204" s="3">
         <v>3851.2643554687802</v>
       </c>
       <c r="I204" s="2">
@@ -6853,16 +6872,16 @@
       <c r="D205" t="s">
         <v>0</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="3">
         <v>283.87909935672798</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="4">
         <v>278</v>
       </c>
-      <c r="G205" s="2">
+      <c r="G205" s="3">
         <v>813.43424254631202</v>
       </c>
-      <c r="H205" s="2">
+      <c r="H205" s="3">
         <v>3698.3955076217599</v>
       </c>
       <c r="I205" s="2">
@@ -6882,16 +6901,16 @@
       <c r="D206" t="s">
         <v>2</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="3">
         <v>337.36375898687999</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="4">
         <v>302</v>
       </c>
-      <c r="G206" s="2">
+      <c r="G206" s="3">
         <v>1105.28028475211</v>
       </c>
-      <c r="H206" s="2">
+      <c r="H206" s="3">
         <v>4663.1660510105703</v>
       </c>
       <c r="I206" s="2">
@@ -6911,16 +6930,16 @@
       <c r="D207" t="s">
         <v>0</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F207">
+      <c r="E207" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F207" s="4">
         <v>243</v>
       </c>
-      <c r="G207" s="2">
+      <c r="G207" s="3">
         <v>1010.82887300191</v>
       </c>
-      <c r="H207" s="2">
+      <c r="H207" s="3">
         <v>1278.88559070306</v>
       </c>
       <c r="I207" s="2">
@@ -6940,16 +6959,16 @@
       <c r="D208" t="s">
         <v>0</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="3">
         <v>363.82154263621601</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="4">
         <v>302</v>
       </c>
-      <c r="G208" s="2">
+      <c r="G208" s="3">
         <v>1159.7970111971499</v>
       </c>
-      <c r="H208" s="2">
+      <c r="H208" s="3">
         <v>5416.10858490597</v>
       </c>
       <c r="I208" s="2">
@@ -6969,16 +6988,16 @@
       <c r="D209" t="s">
         <v>0</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F209">
+      <c r="E209" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F209" s="4">
         <v>275</v>
       </c>
-      <c r="G209" s="2">
+      <c r="G209" s="3">
         <v>851.89883100955205</v>
       </c>
-      <c r="H209" s="2">
+      <c r="H209" s="3">
         <v>3892.08544334513</v>
       </c>
       <c r="I209" s="2">
@@ -6998,16 +7017,16 @@
       <c r="D210" t="s">
         <v>0</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F210">
+      <c r="E210" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F210" s="4">
         <v>311</v>
       </c>
-      <c r="G210" s="2">
+      <c r="G210" s="3">
         <v>3364.6727935344202</v>
       </c>
-      <c r="H210" s="2" t="s">
+      <c r="H210" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I210" s="2">
@@ -7027,16 +7046,16 @@
       <c r="D211" t="s">
         <v>0</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F211">
+      <c r="E211" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F211" s="4">
         <v>316</v>
       </c>
-      <c r="G211" s="2">
+      <c r="G211" s="3">
         <v>1639.2485621088899</v>
       </c>
-      <c r="H211" s="2">
+      <c r="H211" s="3">
         <v>3807.6308544071399</v>
       </c>
       <c r="I211" s="2">
@@ -7056,16 +7075,16 @@
       <c r="D212" t="s">
         <v>0</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212" s="3">
         <v>335.66933138544198</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="4">
         <v>325</v>
       </c>
-      <c r="G212" s="2">
+      <c r="G212" s="3">
         <v>817.92099328113397</v>
       </c>
-      <c r="H212" s="2">
+      <c r="H212" s="3">
         <v>3423.9698437761299</v>
       </c>
       <c r="I212" s="2">
@@ -7085,16 +7104,16 @@
       <c r="D213" t="s">
         <v>0</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F213">
+      <c r="E213" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F213" s="4">
         <v>209</v>
       </c>
-      <c r="G213" s="2">
+      <c r="G213" s="3">
         <v>848.18777851504399</v>
       </c>
-      <c r="H213" s="2">
+      <c r="H213" s="3">
         <v>3897.7679473991502</v>
       </c>
       <c r="I213" s="2">
@@ -7114,16 +7133,16 @@
       <c r="D214" t="s">
         <v>0</v>
       </c>
-      <c r="E214" s="2">
+      <c r="E214" s="3">
         <v>294.41390739288198</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="4">
         <v>302</v>
       </c>
-      <c r="G214" s="2">
+      <c r="G214" s="3">
         <v>1199.79525974949</v>
       </c>
-      <c r="H214" s="2">
+      <c r="H214" s="3">
         <v>4378.4885145144499</v>
       </c>
       <c r="I214" s="2">
@@ -7143,16 +7162,16 @@
       <c r="D215" t="s">
         <v>2</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215" s="3">
         <v>333.85764702614398</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="4">
         <v>333</v>
       </c>
-      <c r="G215" s="2">
+      <c r="G215" s="3">
         <v>787.284141247241</v>
       </c>
-      <c r="H215" s="2" t="s">
+      <c r="H215" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I215" s="2">
@@ -7172,16 +7191,16 @@
       <c r="D216" t="s">
         <v>0</v>
       </c>
-      <c r="E216" s="2">
+      <c r="E216" s="3">
         <v>212.95019179714799</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="4">
         <v>277</v>
       </c>
-      <c r="G216" s="2">
+      <c r="G216" s="3">
         <v>1132.4308097004</v>
       </c>
-      <c r="H216" s="2">
+      <c r="H216" s="3">
         <v>3051.45934688228</v>
       </c>
       <c r="I216" s="2">
@@ -7201,16 +7220,16 @@
       <c r="D217" t="s">
         <v>0</v>
       </c>
-      <c r="E217" s="2">
+      <c r="E217" s="3">
         <v>348.54708128918702</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="4">
         <v>259</v>
       </c>
-      <c r="G217" s="2">
+      <c r="G217" s="3">
         <v>572.31061049343896</v>
       </c>
-      <c r="H217" s="2">
+      <c r="H217" s="3">
         <v>3977.5508300034298</v>
       </c>
       <c r="I217" s="2">
@@ -7230,16 +7249,16 @@
       <c r="D218" t="s">
         <v>0</v>
       </c>
-      <c r="E218" s="2">
+      <c r="E218" s="3">
         <v>225.60623944216599</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="4">
         <v>224</v>
       </c>
-      <c r="G218" s="2">
+      <c r="G218" s="3">
         <v>943.81125943056099</v>
       </c>
-      <c r="H218" s="2">
+      <c r="H218" s="3">
         <v>2237.7125313356601</v>
       </c>
       <c r="I218" s="2">
@@ -7259,16 +7278,16 @@
       <c r="D219" t="s">
         <v>0</v>
       </c>
-      <c r="E219" s="2">
+      <c r="E219" s="3">
         <v>364.50420663124999</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="4">
         <v>363</v>
       </c>
-      <c r="G219" s="2">
+      <c r="G219" s="3">
         <v>495.38051822949302</v>
       </c>
-      <c r="H219" s="2">
+      <c r="H219" s="3">
         <v>3718.5077789665002</v>
       </c>
       <c r="I219" s="2">
